--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00C50EC-2206-404E-90BF-8D94F9A4083A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600D4F74-18BB-44CD-96A7-34524E2F477D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1600" yWindow="4880" windowWidth="14400" windowHeight="7810" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
     <t>sdas</t>
   </si>
   <si>
-    <t>as</t>
+    <t>xx</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -457,6 +457,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -852,13 +853,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -1065,7 +1066,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1080,7 +1081,7 @@
     <col min="5" max="5" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>48</v>
       </c>
@@ -1093,8 +1094,11 @@
       <c r="D1" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>86</v>
       </c>
@@ -1104,8 +1108,11 @@
       <c r="C2" t="s">
         <v>92</v>
       </c>
-      <c r="D2" t="s">
-        <v>93</v>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
